--- a/reports/draft.xlsx
+++ b/reports/draft.xlsx
@@ -1,85 +1,76 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20384"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ddpavlov\Desktop\Личная папка\Scripts\Dependency Track\Gitlab\reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ddpavlov\Desktop\Личная папка\Scripts\Dependency Track\dt-report-generator\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61894AD1-7AE7-4205-90CA-68A9C48D1A27}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Общая информация" sheetId="1" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
-    <sheet name="Все срабатывания" sheetId="3" r:id="rId5"/>
+    <sheet name="General information" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="All issues" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
-  <si>
-    <t>Проект</t>
-  </si>
-  <si>
-    <t>Общее количество компонентов</t>
-  </si>
-  <si>
-    <t>Общее количество уязвимостей</t>
-  </si>
-  <si>
-    <t>Дата загрузки SBOM</t>
-  </si>
-  <si>
-    <t>Дата формирования отчета</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>№</t>
   </si>
   <si>
-    <t>Компонент</t>
-  </si>
-  <si>
-    <t>Используемая версия</t>
-  </si>
-  <si>
-    <t>Группа</t>
-  </si>
-  <si>
-    <t>Рекомендуемая версия</t>
-  </si>
-  <si>
-    <t>Версия</t>
-  </si>
-  <si>
-    <t>ID уязвимости</t>
-  </si>
-  <si>
-    <t>Критичность</t>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>Count of dependencies</t>
+  </si>
+  <si>
+    <t>Count of vulnerabilities</t>
+  </si>
+  <si>
+    <t>Date of SBOM import</t>
+  </si>
+  <si>
+    <t>Date of report creation</t>
+  </si>
+  <si>
+    <t>Dependency</t>
+  </si>
+  <si>
+    <t>Used version</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>Recommended version</t>
+  </si>
+  <si>
+    <t>Vulnerability ID</t>
+  </si>
+  <si>
+    <t>Severity</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -114,6 +105,7 @@
         <color auto="1"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -122,6 +114,7 @@
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -132,6 +125,7 @@
         <color auto="1"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -140,6 +134,7 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -150,6 +145,7 @@
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -160,6 +156,7 @@
         <color auto="1"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -168,6 +165,7 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -178,36 +176,15 @@
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -225,17 +202,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="15" builtinId="5"/>
-    <cellStyle name="Currency" xfId="16" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="17" builtinId="7"/>
-    <cellStyle name="Comma" xfId="18" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="19" builtinId="6"/>
+  <cellStyles count="1">
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="7">
     <dxf>
@@ -260,85 +232,17 @@
       <font>
         <b/>
         <i val="0"/>
+        <strike val="0"/>
         <u val="none"/>
-        <strike val="0"/>
         <sz val="11"/>
+        <color theme="1"/>
         <name val="Calibri"/>
         <family val="2"/>
-        <color theme="1"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -351,29 +255,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:E9999" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A1:E9999"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица1" displayName="Таблица1" ref="A1:E9999" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A1:E9999" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="№" dataDxfId="0"/>
-    <tableColumn id="2" name="Компонент"/>
-    <tableColumn id="3" name="Используемая версия" dataDxfId="4"/>
-    <tableColumn id="4" name="Группа"/>
-    <tableColumn id="5" name="Рекомендуемая версия" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Dependency"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Used version" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Group"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Recommended version" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A1:F9999" totalsRowShown="0" headerRowDxfId="5">
-  <autoFilter ref="A1:F9999"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Таблица2" displayName="Таблица2" ref="A1:F9999" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A1:F9999" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="№" dataDxfId="1"/>
-    <tableColumn id="2" name="Компонент"/>
-    <tableColumn id="3" name="Версия" dataDxfId="2"/>
-    <tableColumn id="4" name="Группа"/>
-    <tableColumn id="5" name="ID уязвимости"/>
-    <tableColumn id="6" name="Критичность"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="№" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Dependency"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Used version" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Group"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Vulnerability ID"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Severity"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -663,77 +567,77 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="30.7142857142857" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="44.5714285714286" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" thickBot="1"/>
-    <row r="2" spans="2:4" ht="14.4">
+    <row r="1" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="6"/>
     </row>
-    <row r="3" spans="2:4" ht="14.4">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="7"/>
     </row>
-    <row r="4" spans="2:4" ht="14.4">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" s="10" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="7"/>
     </row>
-    <row r="5" spans="2:4" ht="14.4">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B5" s="10" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="7"/>
     </row>
-    <row r="6" spans="2:4" ht="15" thickBot="1">
+    <row r="6" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="11" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.57142857142857" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.7142857142857" customWidth="1"/>
-    <col min="3" max="3" width="25.7142857142857" style="2" customWidth="1"/>
-    <col min="4" max="4" width="25.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="25.7142857142857" style="2" customWidth="1"/>
+    <col min="1" max="1" width="7.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="5" width="25.6640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>6</v>
@@ -750,50 +654,50 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId2"/>
-  <tableParts>
-    <tablePart r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.57142857142857" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.7142857142857" customWidth="1"/>
-    <col min="3" max="3" width="25.7142857142857" style="2" customWidth="1"/>
-    <col min="4" max="6" width="25.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="7.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" style="2" customWidth="1"/>
+    <col min="4" max="6" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <tableParts>
+  <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>

--- a/reports/draft.xlsx
+++ b/reports/draft.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20384"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ddpavlov\Desktop\Личная папка\Scripts\Dependency Track\dt-report-generator\reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/denimoll/Files/Programming shits/dt-report-generator/reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61894AD1-7AE7-4205-90CA-68A9C48D1A27}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A74A001-0871-304B-89E2-A5E39221240C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General information" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Vulnerable dependencies" sheetId="2" r:id="rId2"/>
     <sheet name="All issues" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>№</t>
   </si>
@@ -51,20 +51,35 @@
     <t>Group</t>
   </si>
   <si>
-    <t>Recommended version</t>
-  </si>
-  <si>
-    <t>Vulnerability ID</t>
+    <t>Count of vulnerable dependencies</t>
+  </si>
+  <si>
+    <t>Last version</t>
+  </si>
+  <si>
+    <t>Final severity</t>
+  </si>
+  <si>
+    <t>Vulnerability</t>
   </si>
   <si>
     <t>Severity</t>
+  </si>
+  <si>
+    <t>Component</t>
+  </si>
+  <si>
+    <t>Verison</t>
+  </si>
+  <si>
+    <t>Report generated by dt-report-generator</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,6 +96,21 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -90,7 +120,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -178,11 +208,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -205,8 +251,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="7">
@@ -217,6 +267,16 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -255,29 +315,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица1" displayName="Таблица1" ref="A1:E9999" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A1:E9999" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица1" displayName="Таблица1" ref="A1:F9999" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A1:F9999" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Dependency"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Used version" dataDxfId="4"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Group"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Recommended version" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{285D99C5-8A98-2543-AEE5-A809E9291686}" name="Final severity"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Last version" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Таблица2" displayName="Таблица2" ref="A1:F9999" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="A1:F9999" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="№" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Dependency"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Used version" dataDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Group"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Vulnerability ID"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Severity"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CB748631-99CD-E64B-B79C-4310C8831AA6}" name="Таблица13" displayName="Таблица13" ref="A1:E9999" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A1:E9999" xr:uid="{AA918DB4-2484-7040-BD07-7776E141CE3F}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{1C7933C9-3C85-7448-9754-6292512DCAFC}" name="№" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{C83DC10C-1585-F04B-ADC5-44A9BA98F3D9}" name="Vulnerability"/>
+    <tableColumn id="3" xr3:uid="{FFC137A4-FB67-3D45-88EB-DD55BF6795F0}" name="Severity" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{1A434919-AB14-964F-9CA9-DD4331C139F6}" name="Component"/>
+    <tableColumn id="6" xr3:uid="{E8635739-AAAF-CA48-B42D-D80511409E7A}" name="Verison"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -568,74 +628,94 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:D6"/>
+  <dimension ref="B1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="44.5546875" customWidth="1"/>
+    <col min="4" max="4" width="44.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="6"/>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B3" s="10" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="7"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="7"/>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B5" s="10" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="7"/>
     </row>
-    <row r="6" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="11" t="s">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B6" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7" spans="2:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="8"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="8"/>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B9" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B9:D9"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B9:D9" r:id="rId1" display="Report generated by dt-report-generator" xr:uid="{CCFE3F07-D623-804F-82CB-1792C41C87B9}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.6640625" customWidth="1"/>
     <col min="3" max="3" width="25.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="5" width="25.6640625" style="2" customWidth="1"/>
+    <col min="4" max="5" width="25.6640625" customWidth="1"/>
+    <col min="6" max="6" width="25.6640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -649,7 +729,10 @@
         <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -662,41 +745,38 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{497817E8-1089-EF44-AD2C-86D494CB5712}">
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.6640625" customWidth="1"/>
     <col min="3" max="3" width="25.6640625" style="2" customWidth="1"/>
-    <col min="4" max="6" width="25.6640625" customWidth="1"/>
+    <col min="4" max="5" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>11</v>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>

--- a/reports/draft.xlsx
+++ b/reports/draft.xlsx
@@ -1,28 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20384"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/denimoll/Files/Programming shits/dt-report-generator/reports/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ddpavlov\Desktop\Личная папка\Scripts\Dependency Track\dt-report-generator\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A74A001-0871-304B-89E2-A5E39221240C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F973969A-1474-4F36-94C8-8B77635252BD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="756" windowWidth="30240" windowHeight="18876" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General information" sheetId="1" r:id="rId1"/>
     <sheet name="Vulnerable dependencies" sheetId="2" r:id="rId2"/>
     <sheet name="All issues" sheetId="3" r:id="rId3"/>
+    <sheet name="Technical sheet for diagram" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <externalReferences>
+    <externalReference r:id="rId5"/>
+  </externalReferences>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>№</t>
   </si>
@@ -73,6 +77,30 @@
   </si>
   <si>
     <t>Report generated by dt-report-generator</t>
+  </si>
+  <si>
+    <t>Dependencies</t>
+  </si>
+  <si>
+    <t>Vulnerable</t>
+  </si>
+  <si>
+    <t>Direct</t>
+  </si>
+  <si>
+    <t>Critical</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Unknown</t>
   </si>
 </sst>
 </file>
@@ -228,7 +256,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -253,6 +281,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -312,6 +343,1152 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Dependencies</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" baseline="0"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Technical sheet for diagram'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Vulnerable</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Technical sheet for diagram'!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Critical</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>High</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Medium</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Low</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Unknown</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Technical sheet for diagram'!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F84F-4253-8960-0F2AE7380AA6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="275399056"/>
+        <c:axId val="100683152"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Technical sheet for diagram'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Direct</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Technical sheet for diagram'!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Critical</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>High</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Medium</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Low</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Unknown</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Technical sheet for diagram'!$C$2:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F84F-4253-8960-0F2AE7380AA6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="275399056"/>
+        <c:axId val="100683152"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="275399056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="100683152"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="100683152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="275399056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="322">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B4D6162-8715-41A2-816D-ED1F3B49E3E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="General information"/>
+      <sheetName val="Vulnerable dependencies"/>
+      <sheetName val="All issues"/>
+      <sheetName val="Technical sheet. Diagrams"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3">
+        <row r="1">
+          <cell r="B1" t="str">
+            <v>Vulnerable</v>
+          </cell>
+          <cell r="C1" t="str">
+            <v>Direct</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>Critical</v>
+          </cell>
+          <cell r="B2">
+            <v>3</v>
+          </cell>
+          <cell r="C2">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>High</v>
+          </cell>
+          <cell r="B3">
+            <v>6</v>
+          </cell>
+          <cell r="C3">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>Medium</v>
+          </cell>
+          <cell r="B4">
+            <v>11</v>
+          </cell>
+          <cell r="C4">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>Low</v>
+          </cell>
+          <cell r="B5">
+            <v>0</v>
+          </cell>
+          <cell r="C5">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>Unknown</v>
+          </cell>
+          <cell r="B6">
+            <v>0</v>
+          </cell>
+          <cell r="C6">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -632,56 +1809,56 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="44.5" customWidth="1"/>
+    <col min="4" max="4" width="44.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="6"/>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="7"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="7"/>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B5" s="10" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="7"/>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B6" s="10" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="7"/>
     </row>
-    <row r="7" spans="2:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="8"/>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B9" s="12" t="s">
         <v>16</v>
       </c>
@@ -697,6 +1874,7 @@
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -706,16 +1884,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.6640625" customWidth="1"/>
     <col min="3" max="3" width="25.6640625" style="2" customWidth="1"/>
     <col min="4" max="5" width="25.6640625" customWidth="1"/>
     <col min="6" max="6" width="25.6640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -750,15 +1928,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.6640625" customWidth="1"/>
     <col min="3" max="3" width="25.6640625" style="2" customWidth="1"/>
     <col min="4" max="5" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -781,4 +1959,96 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C3FCDA6-20B3-49DC-BEAE-089A40828C61}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="3" width="25.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="2">
+        <f>COUNTIF('Vulnerable dependencies'!E:E,"critical")+C2</f>
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <f>COUNTIF('Vulnerable dependencies'!E:E,"critical in direct dependency")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="2">
+        <f>COUNTIF('Vulnerable dependencies'!E:E,"high")+C3</f>
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <f>COUNTIF('Vulnerable dependencies'!E:E,"high in direct dependency")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="2">
+        <f>COUNTIF('Vulnerable dependencies'!E:E,"medium")+C4</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <f>COUNTIF('Vulnerable dependencies'!E:E,"medium in direct dependency")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="2">
+        <f>COUNTIF('Vulnerable dependencies'!E:E,"low")+C5</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <f>COUNTIF('Vulnerable dependencies'!E:E,"low in direct dependency")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="2">
+        <f>COUNTIF('Vulnerable dependencies'!E:E,"unknown")+C6</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <f>COUNTIF('Vulnerable dependencies'!E:E,"unknown in direct dependency")</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/reports/draft.xlsx
+++ b/reports/draft.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ddpavlov\Desktop\Личная папка\Scripts\Dependency Track\dt-report-generator\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F973969A-1474-4F36-94C8-8B77635252BD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB74D9F2-552E-41FE-94B6-F8BE78E7083E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="756" windowWidth="30240" windowHeight="18876" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,9 +18,6 @@
     <sheet name="All issues" sheetId="3" r:id="rId3"/>
     <sheet name="Technical sheet for diagram" sheetId="4" r:id="rId4"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId5"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
@@ -82,9 +79,6 @@
     <t>Dependencies</t>
   </si>
   <si>
-    <t>Vulnerable</t>
-  </si>
-  <si>
     <t>Direct</t>
   </si>
   <si>
@@ -101,6 +95,9 @@
   </si>
   <si>
     <t>Unknown</t>
+  </si>
+  <si>
+    <t>All</t>
   </si>
 </sst>
 </file>
@@ -279,11 +276,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -380,7 +377,15 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Dependencies</a:t>
+              <a:t>Vulnerable</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> d</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>ependencies</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" baseline="0"/>
           </a:p>
@@ -431,7 +436,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Vulnerable</c:v>
+                  <c:v>All</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1406,89 +1411,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="General information"/>
-      <sheetName val="Vulnerable dependencies"/>
-      <sheetName val="All issues"/>
-      <sheetName val="Technical sheet. Diagrams"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>Vulnerable</v>
-          </cell>
-          <cell r="C1" t="str">
-            <v>Direct</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>Critical</v>
-          </cell>
-          <cell r="B2">
-            <v>3</v>
-          </cell>
-          <cell r="C2">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>High</v>
-          </cell>
-          <cell r="B3">
-            <v>6</v>
-          </cell>
-          <cell r="C3">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>Medium</v>
-          </cell>
-          <cell r="B4">
-            <v>11</v>
-          </cell>
-          <cell r="C4">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>Low</v>
-          </cell>
-          <cell r="B5">
-            <v>0</v>
-          </cell>
-          <cell r="C5">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>Unknown</v>
-          </cell>
-          <cell r="B6">
-            <v>0</v>
-          </cell>
-          <cell r="C6">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1859,11 +1781,11 @@
       <c r="D7" s="8"/>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1973,19 +1895,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" s="2">
         <f>COUNTIF('Vulnerable dependencies'!E:E,"critical")+C2</f>
@@ -1998,7 +1920,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="2">
         <f>COUNTIF('Vulnerable dependencies'!E:E,"high")+C3</f>
@@ -2011,7 +1933,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="2">
         <f>COUNTIF('Vulnerable dependencies'!E:E,"medium")+C4</f>
@@ -2024,7 +1946,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" s="2">
         <f>COUNTIF('Vulnerable dependencies'!E:E,"low")+C5</f>
@@ -2037,7 +1959,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" s="2">
         <f>COUNTIF('Vulnerable dependencies'!E:E,"unknown")+C6</f>

--- a/reports/draft.xlsx
+++ b/reports/draft.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ddpavlov\Desktop\Личная папка\Scripts\Dependency Track\dt-report-generator\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB74D9F2-552E-41FE-94B6-F8BE78E7083E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C14007-B80D-4C78-9F42-387E359E825D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="756" windowWidth="30240" windowHeight="18876" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>№</t>
   </si>
@@ -98,13 +98,19 @@
   </si>
   <si>
     <t>All</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Additional info</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,6 +138,14 @@
     <font>
       <sz val="11"/>
       <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -253,7 +267,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -279,6 +293,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -287,7 +307,13 @@
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="9">
+    <dxf>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1414,29 +1440,31 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица1" displayName="Таблица1" ref="A1:F9999" totalsRowShown="0" headerRowDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица1" displayName="Таблица1" ref="A1:F9999" totalsRowShown="0" headerRowDxfId="8">
   <autoFilter ref="A1:F9999" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Dependency"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Used version" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Used version" dataDxfId="6"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Group"/>
     <tableColumn id="6" xr3:uid="{285D99C5-8A98-2543-AEE5-A809E9291686}" name="Final severity"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Last version" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Last version" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CB748631-99CD-E64B-B79C-4310C8831AA6}" name="Таблица13" displayName="Таблица13" ref="A1:E9999" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="A1:E9999" xr:uid="{AA918DB4-2484-7040-BD07-7776E141CE3F}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{1C7933C9-3C85-7448-9754-6292512DCAFC}" name="№" dataDxfId="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CB748631-99CD-E64B-B79C-4310C8831AA6}" name="Таблица13" displayName="Таблица13" ref="A1:G9999" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="A1:G9999" xr:uid="{AA918DB4-2484-7040-BD07-7776E141CE3F}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{1C7933C9-3C85-7448-9754-6292512DCAFC}" name="№" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{C83DC10C-1585-F04B-ADC5-44A9BA98F3D9}" name="Vulnerability"/>
-    <tableColumn id="3" xr3:uid="{FFC137A4-FB67-3D45-88EB-DD55BF6795F0}" name="Severity" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{FFC137A4-FB67-3D45-88EB-DD55BF6795F0}" name="Severity" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{71E37B58-9C32-4122-AAA1-DCD4E3B3E000}" name="Priority" dataDxfId="1"/>
     <tableColumn id="4" xr3:uid="{1A434919-AB14-964F-9CA9-DD4331C139F6}" name="Component"/>
     <tableColumn id="6" xr3:uid="{E8635739-AAAF-CA48-B42D-D80511409E7A}" name="Verison"/>
+    <tableColumn id="8" xr3:uid="{EF7CC9FE-A595-4D33-8BA6-E3C0A2BB4CF5}" name="Additional info" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1781,11 +1809,11 @@
       <c r="D7" s="8"/>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1846,7 +1874,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{497817E8-1089-EF44-AD2C-86D494CB5712}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1854,11 +1882,12 @@
   <cols>
     <col min="1" max="1" width="7.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.6640625" customWidth="1"/>
-    <col min="3" max="3" width="25.6640625" style="2" customWidth="1"/>
-    <col min="4" max="5" width="25.6640625" customWidth="1"/>
+    <col min="3" max="4" width="25.6640625" style="2" customWidth="1"/>
+    <col min="5" max="6" width="25.6640625" customWidth="1"/>
+    <col min="7" max="7" width="50.77734375" style="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1869,16 +1898,23 @@
         <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
